--- a/color.xlsx
+++ b/color.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shampa Meta\git\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCC771-11C1-4267-BB80-32ADEFFD436C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B884D0A-5ADE-4C8E-AA5B-BBACF03212E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{43B60438-6147-4619-8062-F246D2C09E48}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Sl No</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DD6E11-0105-480F-916E-D6D3ADAB7759}">
-  <dimension ref="F6:G12"/>
+  <dimension ref="F6:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +453,20 @@
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
